--- a/Lab09/Book1.xlsx
+++ b/Lab09/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridarora/Desktop/2XB3/Lab09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F837CF8F-0998-124E-98AE-16FD39CCAA48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E61CB-A1DA-794A-B4B3-94CE9682BE72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{E4556EB3-86F5-E64C-8522-E0F4CB18F3C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{E4556EB3-86F5-E64C-8522-E0F4CB18F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet5!$A$4:$A$100</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet5!$C$4:$C$100</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8322,6 +8319,1873 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>mystery function runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$A$1:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$B$1:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>3.5028999999991902E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.61169999999936E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9625900000001099E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8179800000000497E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1982099999999902E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1620599999999901E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1711500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.69126599999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.3187810000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.92207399999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.600346E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>4.7865819999999901E-4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>6.6469059999999902E-4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>7.4305519999999904E-4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>9.5416619999999703E-4</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.0665485E-3</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1.2229114999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.42748989999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1.6853999000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1.90099249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2.2011879000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>2.6723979999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>2.9055141999999902E-3</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>3.2820345999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>3.6058953000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>4.1654036E-3</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>4.56026119999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>4.8931058000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>5.5891515999999903E-3</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>5.9552029999999897E-3</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>6.8525975000000199E-3</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>7.2389464000000101E-3</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>8.0884808000000197E-3</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>8.7787740999999905E-3</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>9.4291560999999694E-3</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>1.03169327E-2</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>1.11099931E-2</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>1.2094966999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>1.28581452999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>1.38625331999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>1.4873200899999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>1.58519734E-2</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>1.71367919E-2</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>1.8207238099999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>1.9582640899999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>2.0701193999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>2.2403671699999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>2.3580515899999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>2.4947306499999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>2.6286277999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>2.83226756E-2</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>2.98440481000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>3.1276461399999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>3.3459295499999799E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>3.4755114099999797E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>3.6709917800000103E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>3.85972053E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>4.0506151799999897E-2</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>4.2951544199999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>4.5153419999999903E-2</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>4.7038576800000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>4.9053439700000097E-2</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>5.1440658599999599E-2</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>5.4130480899999701E-2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>5.64181107999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>5.9168329100000201E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>6.1584260299999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>6.4685354100000397E-2</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>6.7838271400000302E-2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>7.0349849499999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>7.3135723599999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>7.5818984800000599E-2</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>7.8948887899999806E-2</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>8.2816715700000598E-2</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>8.5521054600000507E-2</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>9.0023884599999701E-2</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>9.2181450599999604E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>9.5851096499999497E-2</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>9.9621908299999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>0.10256475279999901</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>0.10715111869999901</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>0.1104509672</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>0.114898906599998</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>0.118886810499999</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>0.122857924899999</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>0.12843646309999801</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>0.13085498179999899</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>0.134973485599999</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>0.14032134830000001</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>0.14439249309999899</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.14964949499999899</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>0.1540204258</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>0.15936375950000001</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>0.164615687899999</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0.169690882499999</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>0.175085530500001</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>0.178932399500002</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.185484768399999</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.190936847699997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96F1-E24E-A67C-09AD37E77E4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2064642032"/>
+        <c:axId val="2089163632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2064642032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2089163632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2089163632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064642032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log of runtime of mystery</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> function</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24520290732889158"/>
+                  <c:y val="-1.2763890429189309E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$C$1:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47712125471966244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6020599913279624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69897000433601886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77815125038364363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84509804001425681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90308998699194354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95424250943932487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0791812460476249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1139433523068367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.146128035678238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2304489213782739</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.255272505103306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2787536009528289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3424226808222062</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3617278360175928</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3802112417116059</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4313637641589874</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4471580313422192</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4623979978989561</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4913616938342726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.505149978319906</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5185139398778875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5314789170422551</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5563025007672873</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.568201724066995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5797835966168101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5910646070264991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6020599913279623</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6232492903979006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6334684555795864</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6434526764861874</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6627578316815741</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6720978579357175</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6901960800285136</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7075701760979363</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7160033436347992</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7242758696007889</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7323937598229686</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7403626894942439</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7481880270062005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7558748556724915</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7634279935629373</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7708520116421442</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7781512503836436</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7853298350107671</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7923916894982539</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7993405494535817</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8061799739838871</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8129133566428555</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8195439355418688</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8260748027008264</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8325089127062364</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8388490907372552</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8512583487190752</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8573324964312685</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8633228601204559</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8692317197309762</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.8808135922807914</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8864907251724818</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8920946026904804</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8976270912904414</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9030899869919435</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9084850188786497</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9138138523837167</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.919078092376074</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9242792860618816</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9294189257142926</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9344984512435677</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9395192526186185</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9444826721501687</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9493900066449128</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.954242509439325</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9590413923210936</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9637878273455553</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.968482948553935</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9731278535996986</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9777236052888478</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9822712330395684</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9867717342662448</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9912260756924949</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9956351945975499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$D$1:$D$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-5.4555722606464645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.1185183369000384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.7071704183497438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.3171350071412542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2077337136249406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.0882002170151939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.9313874772587218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.7717880817889502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.6347402668785311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.5343087899812167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4436557607132432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.3199744966917946</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.1773804629394089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.1289789222220294</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.0203759717778063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.9720193907504631</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.9126049709705493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.84542695585955</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.7732970361828153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.7210195965564634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.6573428831849197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.5730988619405242</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.5367769977104708</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.4838568448216636</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.442986887511672</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.380342911961677</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.3410102813553246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3104153937108509</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2526541104323083</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.2251034297685788</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.1641447765238517</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.1403246390464248</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.0921330410742365</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.0565661263236112</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.0255271744433232</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.9864494024634576</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.9542862107830619</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9173953122328578</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.890821670919244</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.8581574007302866</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.8275955557813901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.7999166650940246</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.7660704770763076</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.7397559283896393</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.7081287399610321</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.6840046046562847</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.6496808000420002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.6274466975415143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.6029763372283052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.5802709033761901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.5478657219064229</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.5251422687243978</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.5047823886488387</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.4754832075363149</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.4589812813762117</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.4352165879570957</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.4134441400621416</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.3924790140716488</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.3670212177353378</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3453093498714608</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.3275458267545579</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.3093305338425856</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.2886934797316845</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.2665581145810525</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.248581460592423</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.2279106949260623</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.210530270600376</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.1891940400975678</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1685252269513109</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.1527368273179275</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.1358704373698509</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.1202220349809309</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.1026539832275057</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.0818819965050854</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.0679269522785011</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.0456422508516081</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.0353564619457316</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.0184029145942088</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.0016451434285496</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.98900186236711241</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.97000329039256539</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.956830476734296</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.93968410412152148</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.92486632405920333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.9105968242931165</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.89131166259871297</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.88320973861780128</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.86975153660540283</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.85287625097036135</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.84045538495192995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.82492474437062469</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.81242168030645845</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.79761043349589134</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.78352877882153804</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.77034149172071065</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.75674974360051694</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.74731101409964207</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.73169174788951841</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.71911025176062904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B94A-6744-8E3A-552F2813131E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2090711248"/>
+        <c:axId val="2090336528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2090711248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090336528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2090336528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090711248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8562,6 +10426,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11143,6 +13087,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11891,6 +14867,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81B561B-EF26-B64B-BEB4-8FDA6FA73195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95A7A5C-0D28-D54E-9989-4267F7E1710F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16094,7 +19147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCDFA3F-F939-8441-B257-8FA4CF14680D}">
   <dimension ref="A2:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
@@ -17197,12 +20250,3199 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B7E3D6-3788-9444-86DD-BE19E3CE1697}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>8.2500000000013101E-6</v>
+      </c>
+      <c r="C1">
+        <f>LOG(A1)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>LOG(B1)</f>
+        <v>-5.0835460514500062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.15430000000027E-5</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">LOG(A2)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="1">LOG(B2)</f>
+        <v>-4.9376813043411225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.2509000000000401E-5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>-4.6476437988301651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.2778000000000199E-5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-4.3687795238614511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.2532000000000505E-5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-4.2038976807856105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.02839E-4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-3.9878421550610073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.21127999999998E-4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-3.9167554535547153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.94514999999999E-4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-3.7110469024820141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2.31249999999998E-4</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-3.6359182585889336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2.9285699999999999E-4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-3.5333443908095208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3.7692700000000601E-4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-3.4237427520939665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>5.2149399999999702E-4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-3.2827506839428824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5.9293699999999401E-4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-3.2269914482982172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>7.0994799999999497E-4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-3.1487734599289472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>8.5646699999999899E-4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-3.067289365908048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.1750719999999899E-3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-2.9299355221201626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1.3234379999999999E-3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-2.8782963995750128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.4146369999999901E-3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.255272505103306</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-2.849354987080885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1.65013599999999E-3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.2787536009528289</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-2.7824802608676009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2.0843749999999899E-3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-2.6810241444033589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2.5952279999999898E-3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-2.5858244818262555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2.5642009999999999E-3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.3424226808222062</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-2.5910479347813609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2.9354809999999898E-3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.3617278360175928</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-2.5323207262629364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>3.37697E-3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-2.4714727974908333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>4.0708089999999903E-3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>-2.3903192739880792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>4.4810500000000003E-3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>-2.3486202101590505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>5.0376139999999897E-3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>-2.2977751127593735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>6.0786709999999904E-3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.4471580313422192</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>-2.2161913615918962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>6.7788309999999904E-3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.4623979978989561</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>-2.1688451931568413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>6.3985560000000101E-3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>-2.1939180247644909</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>7.1813479999999997E-3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.4913616938342726</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>-2.1437940273436085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>7.4678929999999998E-3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>-2.12680191325141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>8.05607299999999E-3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1.5185139398778875</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>-2.0938766070828478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>8.6109879999999792E-3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>-2.0649470159875416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>9.6295460000000097E-3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>-2.0163941878850857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1.0199478999999999E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1.5563025007672873</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>-1.9914220118855297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1.1115748999999901E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1.568201724066995</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>-1.9540612684029171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1.1817337000000001E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1.5797835966168101</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>-1.927480379335077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1.3417929999999899E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.5910646070264991</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>-1.8723144781251573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1.4803405999999899E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>-1.8296383496845916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1.475748E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1.6127838567197355</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>-1.8309877966817651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1.5952862999999901E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.6232492903979006</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>-1.7971613644235926</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1.6999490999999999E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1.6334684555795864</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>-1.7695640821041196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1.8804372E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1.6434526764861874</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>-1.725741165910224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1.963823E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>-1.7068976578868273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>2.1556122999999899E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1.6627578316815741</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>-1.666429346969275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>2.2342664999999901E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1.6720978579357175</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>-1.6508650261279605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>2.3233761999999901E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1.6812412373755872</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>-1.6338804637443025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>2.4923925999999898E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1.6901960800285136</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>-1.6033835468507303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>2.6666870999999901E-2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>-1.5740279399590025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>2.89033E-2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1.7075701760979363</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>-1.5390525693551538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>2.8971212999999999E-2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1.7160033436347992</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>-1.5380333208756971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>3.0624200000000101E-2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1.7242758696007889</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>-1.5139352476110353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>3.3836026999999901E-2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1.7323937598229686</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>-1.4706206371600028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>3.5755226000000001E-2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1.7403626894942439</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>-1.4466604725457037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>3.6458537999999902E-2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1.7481880270062005</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>-1.4382007506909997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>3.93906809999999E-2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1.7558748556724915</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>-1.4046065108896253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>4.4308732000000003E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1.7634279935629373</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>-1.353510678162533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>4.3675742999999899E-2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1.7708520116421442</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>-1.3597596981812006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>4.7967587999999999E-2</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1.7781512503836436</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>-1.3190521190289244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>4.6940368000000003E-2</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1.7853298350107671</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>-1.3284535099708548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>4.90318E-2</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1.7923916894982539</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>-1.309522163133217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>5.1570576E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1.7993405494535817</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>-1.2875980178617636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>5.3219664E-2</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>-1.27392787167502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>5.7544943999999897E-2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1.8129133566428555</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>-1.2399928282350727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>5.8235000000000002E-2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C99" si="2">LOG(A66)</f>
+        <v>1.8195439355418688</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D99" si="3">LOG(B66)</f>
+        <v>-1.2348159201927371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>6.3232864000000097E-2</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>1.8260748027008264</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>-1.1990571472832914</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>6.2819884999999895E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>1.8325089127062364</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>-1.201902862969529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>6.7337359999999999E-2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>1.8388490907372552</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>-1.1717439143795794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>6.9196567000000098E-2</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>1.8450980400142569</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>-1.1599154513516239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>7.2380311000000003E-2</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>1.8512583487190752</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>-1.140379555169603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>7.6691898999999994E-2</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>1.8573324964312685</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>-1.1152505083509789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>7.8894237000000006E-2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>1.8633228601204559</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>-1.102954719610727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>8.4145198000000004E-2</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>1.8692317197309762</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>-1.0749706633079807</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>8.6281848999999897E-2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>1.8750612633917001</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>-1.0640805566398128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>8.9067177999999997E-2</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>1.8808135922807914</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>-1.0502823076308891</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>9.0976309000000199E-2</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>1.8864907251724818</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>-1.0410716869108718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>9.6791026000000002E-2</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>1.8920946026904804</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>-1.014164906527838</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0.10118638199999901</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>1.8976270912904414</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>-0.99487793236000421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0.10201165299999899</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>-0.9913502150564012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0.110511364</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>1.9084850188786497</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>-0.95659306072338235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0.110257564</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>1.9138138523837167</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>-0.95759160693243239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0.116382478999999</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>1.919078092376074</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>-0.93411239637311227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0.11860577999999999</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>1.9242792860618816</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>-0.92589414603972209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>0.121802044</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>1.9294189257142926</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>-0.91434542360402526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0.128214562</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>1.9344984512435677</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>-0.89206264691473791</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>0.13210307299999899</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>1.9395192526186185</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>-0.87908707964951782</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0.13544128599999899</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>1.9444826721501687</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>-0.86824893130157377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>0.14156386099999901</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>1.9493900066449128</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>-0.84904760096439413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>0.145749394999999</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>1.954242509439325</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>-0.83639323930450449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>0.15008561500000001</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>1.9590413923210936</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>-0.82366093084467773</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>0.152028575</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>1.9637878273455553</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>-0.81807477522318339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>0.16142250999999999</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>1.968482948553935</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>-0.79203590401829971</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>0.16474219500000001</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>1.9731278535996986</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>-0.78319515184002986</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>0.170927733</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>1.9777236052888478</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>-0.76718746734525667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>0.17368061799999901</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>1.9822712330395684</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>-0.76024864422019622</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0.18002399699999999</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>1.9867717342662448</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>-0.74466960006310223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0.183382875999999</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>1.9912260756924949</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>-0.73664122049761571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>0.19162826699999999</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>1.9956351945975499</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>-0.71754042794720874</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C87E68-0ACB-5940-B17C-76B0D4030440}">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3.5028999999991902E-6</v>
+      </c>
+      <c r="C1">
+        <f>LOG(A1)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>LOG(B1)</f>
+        <v>-5.4555722606464645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.61169999999936E-6</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">LOG(A2)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="1">LOG(B2)</f>
+        <v>-5.1185183369000384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.9625900000001099E-5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>-4.7071704183497438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.8179800000000497E-5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-4.3171350071412542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.1982099999999902E-5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-4.2077337136249406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.1620599999999901E-5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-4.0882002170151939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.1711500000000001E-4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-3.9313874772587218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.69126599999998E-4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-3.7717880817889502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2.3187810000000001E-4</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-3.6347402668785311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2.92207399999999E-4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-3.5343087899812167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3.600346E-4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-3.4436557607132432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4.7865819999999901E-4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-3.3199744966917946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6.6469059999999902E-4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-3.1773804629394089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>7.4305519999999904E-4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-3.1289789222220294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>9.5416619999999703E-4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-3.0203759717778063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.0665485E-3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-2.9720193907504631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1.2229114999999899E-3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-2.9126049709705493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.42748989999999E-3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.255272505103306</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-2.84542695585955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1.6853999000000001E-3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.2787536009528289</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-2.7732970361828153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1.90099249999999E-3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-2.7210195965564634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2.2011879000000002E-3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-2.6573428831849197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2.6723979999999899E-3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.3424226808222062</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-2.5730988619405242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2.9055141999999902E-3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.3617278360175928</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-2.5367769977104708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>3.2820345999999899E-3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-2.4838568448216636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>3.6058953000000001E-3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>-2.442986887511672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>4.1654036E-3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>-2.380342911961677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>4.56026119999999E-3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>-2.3410102813553246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>4.8931058000000003E-3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.4471580313422192</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>-2.3104153937108509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>5.5891515999999903E-3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.4623979978989561</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>-2.2526541104323083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>5.9552029999999897E-3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>-2.2251034297685788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>6.8525975000000199E-3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.4913616938342726</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>-2.1641447765238517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>7.2389464000000101E-3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>-2.1403246390464248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>8.0884808000000197E-3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1.5185139398778875</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>-2.0921330410742365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>8.7787740999999905E-3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>-2.0565661263236112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>9.4291560999999694E-3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>-2.0255271744433232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1.03169327E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1.5563025007672873</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>-1.9864494024634576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1.11099931E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1.568201724066995</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>-1.9542862107830619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1.2094966999999899E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1.5797835966168101</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>-1.9173953122328578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1.28581452999999E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.5910646070264991</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>-1.890821670919244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1.38625331999999E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>-1.8581574007302866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1.4873200899999901E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1.6127838567197355</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>-1.8275955557813901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1.58519734E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.6232492903979006</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>-1.7999166650940246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1.71367919E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1.6334684555795864</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>-1.7660704770763076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1.8207238099999998E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1.6434526764861874</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>-1.7397559283896393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1.9582640899999899E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>-1.7081287399610321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>2.0701193999999899E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1.6627578316815741</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>-1.6840046046562847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>2.2403671699999898E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1.6720978579357175</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>-1.6496808000420002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>2.3580515899999901E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1.6812412373755872</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>-1.6274466975415143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>2.4947306499999999E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1.6901960800285136</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>-1.6029763372283052</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>2.6286277999999899E-2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>-1.5802709033761901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>2.83226756E-2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1.7075701760979363</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>-1.5478657219064229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>2.98440481000001E-2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1.7160033436347992</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>-1.5251422687243978</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>3.1276461399999997E-2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1.7242758696007889</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>-1.5047823886488387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>3.3459295499999799E-2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1.7323937598229686</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>-1.4754832075363149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>3.4755114099999797E-2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1.7403626894942439</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>-1.4589812813762117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>3.6709917800000103E-2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1.7481880270062005</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>-1.4352165879570957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>3.85972053E-2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1.7558748556724915</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>-1.4134441400621416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>4.0506151799999897E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1.7634279935629373</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>-1.3924790140716488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>4.2951544199999997E-2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1.7708520116421442</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>-1.3670212177353378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>4.5153419999999903E-2</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1.7781512503836436</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>-1.3453093498714608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>4.7038576800000002E-2</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1.7853298350107671</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>-1.3275458267545579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>4.9053439700000097E-2</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1.7923916894982539</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>-1.3093305338425856</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>5.1440658599999599E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1.7993405494535817</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>-1.2886934797316845</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>5.4130480899999701E-2</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>-1.2665581145810525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>5.64181107999999E-2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1.8129133566428555</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>-1.248581460592423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>5.9168329100000201E-2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C99" si="2">LOG(A66)</f>
+        <v>1.8195439355418688</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D99" si="3">LOG(B66)</f>
+        <v>-1.2279106949260623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>6.1584260299999902E-2</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>1.8260748027008264</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>-1.210530270600376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>6.4685354100000397E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>1.8325089127062364</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>-1.1891940400975678</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>6.7838271400000302E-2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>1.8388490907372552</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>-1.1685252269513109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>7.0349849499999895E-2</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>1.8450980400142569</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>-1.1527368273179275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>7.3135723599999994E-2</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>1.8512583487190752</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>-1.1358704373698509</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>7.5818984800000599E-2</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>1.8573324964312685</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>-1.1202220349809309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>7.8948887899999806E-2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>1.8633228601204559</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>-1.1026539832275057</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>8.2816715700000598E-2</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>1.8692317197309762</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>-1.0818819965050854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>8.5521054600000507E-2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>1.8750612633917001</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>-1.0679269522785011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>9.0023884599999701E-2</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>1.8808135922807914</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>-1.0456422508516081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>9.2181450599999604E-2</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>1.8864907251724818</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>-1.0353564619457316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>9.5851096499999497E-2</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>1.8920946026904804</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>-1.0184029145942088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>9.9621908299999895E-2</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>1.8976270912904414</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>-1.0016451434285496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0.10256475279999901</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>-0.98900186236711241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0.10715111869999901</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>1.9084850188786497</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>-0.97000329039256539</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0.1104509672</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>1.9138138523837167</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>-0.956830476734296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0.114898906599998</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>1.919078092376074</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>-0.93968410412152148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0.118886810499999</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>1.9242792860618816</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>-0.92486632405920333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>0.122857924899999</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>1.9294189257142926</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>-0.9105968242931165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0.12843646309999801</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>1.9344984512435677</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>-0.89131166259871297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>0.13085498179999899</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>1.9395192526186185</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>-0.88320973861780128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0.134973485599999</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>1.9444826721501687</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>-0.86975153660540283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>0.14032134830000001</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>1.9493900066449128</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>-0.85287625097036135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>0.14439249309999899</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>1.954242509439325</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>-0.84045538495192995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>0.14964949499999899</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>1.9590413923210936</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>-0.82492474437062469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>0.1540204258</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>1.9637878273455553</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>-0.81242168030645845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>0.15936375950000001</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>1.968482948553935</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>-0.79761043349589134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>0.164615687899999</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>1.9731278535996986</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>-0.78352877882153804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>0.169690882499999</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>1.9777236052888478</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>-0.77034149172071065</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>0.175085530500001</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>1.9822712330395684</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>-0.75674974360051694</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0.178932399500002</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>1.9867717342662448</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>-0.74731101409964207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0.185484768399999</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>1.9912260756924949</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>-0.73169174788951841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>0.190936847699997</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>1.9956351945975499</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>-0.71911025176062904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>